--- a/django_backend/var/sys/views/core/UsrMnt-v0.xlsx
+++ b/django_backend/var/sys/views/core/UsrMnt-v0.xlsx
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C13" s="12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
@@ -2381,12 +2381,7 @@
           <t>Plugin</t>
         </is>
       </c>
-      <c r="J47" s="12" t="inlineStr">
-        <is>
-          <t>iconCurrent:images/current_sbutton.gif
-iconExpand:images/expand_sbutton.gif</t>
-        </is>
-      </c>
+      <c r="J47" s="12" t="n"/>
       <c r="K47" s="12" t="n"/>
       <c r="L47" s="12" t="n"/>
       <c r="M47" s="12" t="n"/>
